--- a/biology/Botanique/Crocus_minimus/Crocus_minimus.xlsx
+++ b/biology/Botanique/Crocus_minimus/Crocus_minimus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crocus minimus, le Petit Crocus ou Crocus tout-petit[2], est une espèce de plantes monocotylédones de la famille des Iridaceae, sous-famille des Crocoideae, originaire du bassin méditerranéen (Corse et Sardaigne). Ce sont des plantes herbacées, géophytes bulbeuses, rarement cultivées comme plantes ornementales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crocus minimus, le Petit Crocus ou Crocus tout-petit, est une espèce de plantes monocotylédones de la famille des Iridaceae, sous-famille des Crocoideae, originaire du bassin méditerranéen (Corse et Sardaigne). Ce sont des plantes herbacées, géophytes bulbeuses, rarement cultivées comme plantes ornementales.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crocus minimus est une plante herbacée, de 10 à 25 cm de haut, très grêle, glabre, vivace par son corme, ovoïde, pyriforme, très petit (moins de 1 cm de diamètre), constitué de tuniques bulbeuses blond foncé, nombreuses, à fibres de 0,1 à 1 mm de diamètre, parallèles ou plus ou moins réticulées. La plante forme de 3 à 7 feuilles, filiformes, d'abord dressées puis étalées ou arquée-réfléchies, apparaissant avant les fleurs. Ces feuilles, de 10 à 25 cm de long sur 1 à 1,5 mm de large, sont plus ou moins enroulées sur le bord[3],[4].
-Les fleurs, solitaires, petites, sont issues d'une spathe florale constituée d'une bractée tubulaire enveloppant le tube floral et d'une bractée interne strictement linéaire-lancéolée, plus ou moins développée ou totalement absente. Elles comptent six tépales violet, subégaux, de 1,2 à 3,5 cm de long sur 7 à 12 mm de large. Les tépales extérieurs légèrement plus granes, obovales, à apex obtus, sont ornés de veines violettes. Les étamines, au nombre de six, ont des anthères jaunes. Les stigmates sont également jaunes. Le fruit est une capsule de 5 à 12 mm de long contenant de nombreuses graines arrondies de 1,5-2 mm de long, rouge écarlate[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crocus minimus est une plante herbacée, de 10 à 25 cm de haut, très grêle, glabre, vivace par son corme, ovoïde, pyriforme, très petit (moins de 1 cm de diamètre), constitué de tuniques bulbeuses blond foncé, nombreuses, à fibres de 0,1 à 1 mm de diamètre, parallèles ou plus ou moins réticulées. La plante forme de 3 à 7 feuilles, filiformes, d'abord dressées puis étalées ou arquée-réfléchies, apparaissant avant les fleurs. Ces feuilles, de 10 à 25 cm de long sur 1 à 1,5 mm de large, sont plus ou moins enroulées sur le bord,.
+Les fleurs, solitaires, petites, sont issues d'une spathe florale constituée d'une bractée tubulaire enveloppant le tube floral et d'une bractée interne strictement linéaire-lancéolée, plus ou moins développée ou totalement absente. Elles comptent six tépales violet, subégaux, de 1,2 à 3,5 cm de long sur 7 à 12 mm de large. Les tépales extérieurs légèrement plus granes, obovales, à apex obtus, sont ornés de veines violettes. Les étamines, au nombre de six, ont des anthères jaunes. Les stigmates sont également jaunes. Le fruit est une capsule de 5 à 12 mm de long contenant de nombreuses graines arrondies de 1,5-2 mm de long, rouge écarlate,.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de Crocus minimus comprend toute la Sardaigne et l'archipel de La Maddalena, la partie méridionale de la Corse, ainsi que l'île de Capraia (archipel toscan). 
-L'espèce est présente dans les prairies, de préférence sur  sols siliceux. Elle pousse jusqu'à 1800 mètres d'altitude[3].
+L'espèce est présente dans les prairies, de préférence sur  sols siliceux. Elle pousse jusqu'à 1800 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -577,17 +593,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (9 juillet 2021)[1] : 
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (9 juillet 2021) : 
 Bulbocodium elongatum (Vahl) Kuntze
 Crocus insularis J.Gay
 Crocus nanus Duby
 Ixia elongata Vahl
 Romulea elongata (Vahl) Baker
 Trichonema bulbocodium var. elongatum (Vahl) Steud.
-Trichonema elongatum (Vahl) Ker Gawl[1].
-Liste des variétés
-Selon Tropicos                                           (9 juillet 2021)[5] :
+Trichonema elongatum (Vahl) Ker Gawl.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Crocus_minimus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crocus_minimus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (9 juillet 2021) :
 Crocus minimus var. italicus (Bertol.) J. Gay</t>
         </is>
       </c>
